--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Robo1</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H2">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I2">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J2">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N2">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O2">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P2">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q2">
-        <v>0.02516377149001958</v>
+        <v>0.04442134187424999</v>
       </c>
       <c r="R2">
-        <v>0.02516377149001958</v>
+        <v>0.177685367497</v>
       </c>
       <c r="S2">
-        <v>0.001277943457605641</v>
+        <v>0.00138457244495117</v>
       </c>
       <c r="T2">
-        <v>0.001277943457605641</v>
+        <v>0.0008015404253381654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H3">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I3">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J3">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N3">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O3">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P3">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q3">
-        <v>0.7533056242285116</v>
+        <v>1.444013270858667</v>
       </c>
       <c r="R3">
-        <v>0.7533056242285116</v>
+        <v>8.664079625151999</v>
       </c>
       <c r="S3">
-        <v>0.03825666571651144</v>
+        <v>0.04500856796794991</v>
       </c>
       <c r="T3">
-        <v>0.03825666571651144</v>
+        <v>0.03908374767002307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H4">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I4">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J4">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N4">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O4">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P4">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q4">
-        <v>0.02282687166726893</v>
+        <v>0.006490706269833333</v>
       </c>
       <c r="R4">
-        <v>0.02282687166726893</v>
+        <v>0.038944237619</v>
       </c>
       <c r="S4">
-        <v>0.001159263877291202</v>
+        <v>0.000202309355600365</v>
       </c>
       <c r="T4">
-        <v>0.001159263877291202</v>
+        <v>0.0001756778356334315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07137927312602731</v>
+        <v>0.1259785</v>
       </c>
       <c r="H5">
-        <v>0.07137927312602731</v>
+        <v>0.251957</v>
       </c>
       <c r="I5">
-        <v>0.05637913187476376</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J5">
-        <v>0.05637913187476376</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N5">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O5">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P5">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q5">
-        <v>0.3088558155242972</v>
+        <v>0.006008880500166666</v>
       </c>
       <c r="R5">
-        <v>0.3088558155242972</v>
+        <v>0.036053283001</v>
       </c>
       <c r="S5">
-        <v>0.01568525882335547</v>
+        <v>0.0001872912887027828</v>
       </c>
       <c r="T5">
-        <v>0.01568525882335547</v>
+        <v>0.0001626367111627619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.711962846236912</v>
+        <v>0.1259785</v>
       </c>
       <c r="H6">
-        <v>0.711962846236912</v>
+        <v>0.251957</v>
       </c>
       <c r="I6">
-        <v>0.5623459786015482</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J6">
-        <v>0.5623459786015482</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N6">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O6">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P6">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q6">
-        <v>0.2509926143469923</v>
+        <v>0.0522708732415</v>
       </c>
       <c r="R6">
-        <v>0.2509926143469923</v>
+        <v>0.313625239449</v>
       </c>
       <c r="S6">
-        <v>0.01274667311055864</v>
+        <v>0.001629235131360792</v>
       </c>
       <c r="T6">
-        <v>0.01274667311055864</v>
+        <v>0.001414766513224449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.711962846236912</v>
+        <v>0.1259785</v>
       </c>
       <c r="H7">
-        <v>0.711962846236912</v>
+        <v>0.251957</v>
       </c>
       <c r="I7">
-        <v>0.5623459786015482</v>
+        <v>0.07482967403937346</v>
       </c>
       <c r="J7">
-        <v>0.5623459786015482</v>
+        <v>0.05693179265879337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N7">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O7">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P7">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q7">
-        <v>7.51374443621845</v>
+        <v>0.84756098681625</v>
       </c>
       <c r="R7">
-        <v>7.51374443621845</v>
+        <v>3.390243947265</v>
       </c>
       <c r="S7">
-        <v>0.3815859060790845</v>
+        <v>0.02641769785080846</v>
       </c>
       <c r="T7">
-        <v>0.3815859060790845</v>
+        <v>0.0152934235034115</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H8">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I8">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J8">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N8">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O8">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P8">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q8">
-        <v>0.2276835250790404</v>
+        <v>0.2967209129921667</v>
       </c>
       <c r="R8">
-        <v>0.2276835250790404</v>
+        <v>1.780325477953</v>
       </c>
       <c r="S8">
-        <v>0.01156291978707375</v>
+        <v>0.009248518451619694</v>
       </c>
       <c r="T8">
-        <v>0.01156291978707375</v>
+        <v>0.008031065590490525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.711962846236912</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H9">
-        <v>0.711962846236912</v>
+        <v>2.524493</v>
       </c>
       <c r="I9">
-        <v>0.5623459786015482</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J9">
-        <v>0.5623459786015482</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3269677876795</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N9">
-        <v>4.3269677876795</v>
+        <v>34.387136</v>
       </c>
       <c r="O9">
-        <v>0.2782103643986128</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P9">
-        <v>0.2782103643986128</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q9">
-        <v>3.080640301691731</v>
+        <v>9.645564902449777</v>
       </c>
       <c r="R9">
-        <v>3.080640301691731</v>
+        <v>86.810084122048</v>
       </c>
       <c r="S9">
-        <v>0.1564504796248312</v>
+        <v>0.3006434028428496</v>
       </c>
       <c r="T9">
-        <v>0.1564504796248312</v>
+        <v>0.3916011359348601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0706041221358726</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H10">
-        <v>0.0706041221358726</v>
+        <v>2.524493</v>
       </c>
       <c r="I10">
-        <v>0.05576687655213495</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J10">
-        <v>0.05576687655213495</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3525361129076</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N10">
-        <v>0.3525361129076</v>
+        <v>0.154567</v>
       </c>
       <c r="O10">
-        <v>0.02266695876843876</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P10">
-        <v>0.02266695876843876</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q10">
-        <v>0.02489050277303396</v>
+        <v>0.04335592328122222</v>
       </c>
       <c r="R10">
-        <v>0.02489050277303396</v>
+        <v>0.390203309531</v>
       </c>
       <c r="S10">
-        <v>0.001264065491451857</v>
+        <v>0.001351364325520181</v>
       </c>
       <c r="T10">
-        <v>0.001264065491451857</v>
+        <v>0.00176021093405521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0706041221358726</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H11">
-        <v>0.0706041221358726</v>
+        <v>2.524493</v>
       </c>
       <c r="I11">
-        <v>0.05576687655213495</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J11">
-        <v>0.05576687655213495</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.5535625572773</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N11">
-        <v>10.5535625572773</v>
+        <v>0.143093</v>
       </c>
       <c r="O11">
-        <v>0.6785607448069941</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P11">
-        <v>0.6785607448069941</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q11">
-        <v>0.7451250197625784</v>
+        <v>0.04013747520544445</v>
       </c>
       <c r="R11">
-        <v>0.7451250197625784</v>
+        <v>0.361237276849</v>
       </c>
       <c r="S11">
-        <v>0.03784121328877639</v>
+        <v>0.001251048253713013</v>
       </c>
       <c r="T11">
-        <v>0.03784121328877639</v>
+        <v>0.001629544878187208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0706041221358726</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H12">
-        <v>0.0706041221358726</v>
+        <v>2.524493</v>
       </c>
       <c r="I12">
-        <v>0.05576687655213495</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J12">
-        <v>0.05576687655213495</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.31979691957588</v>
+        <v>0.414919</v>
       </c>
       <c r="N12">
-        <v>0.31979691957588</v>
+        <v>1.244757</v>
       </c>
       <c r="O12">
-        <v>0.02056193202595423</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P12">
-        <v>0.02056193202595423</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q12">
-        <v>0.02257898076841126</v>
+        <v>0.3491533703556667</v>
       </c>
       <c r="R12">
-        <v>0.02257898076841126</v>
+        <v>3.142380333201</v>
       </c>
       <c r="S12">
-        <v>0.00114667472496478</v>
+        <v>0.01088279001171999</v>
       </c>
       <c r="T12">
-        <v>0.00114667472496478</v>
+        <v>0.01417530832352159</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0706041221358726</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H13">
-        <v>0.0706041221358726</v>
+        <v>2.524493</v>
       </c>
       <c r="I13">
-        <v>0.05576687655213495</v>
+        <v>0.4998392273408559</v>
       </c>
       <c r="J13">
-        <v>0.05576687655213495</v>
+        <v>0.570430319636189</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3269677876795</v>
+        <v>6.7278225</v>
       </c>
       <c r="N13">
-        <v>4.3269677876795</v>
+        <v>13.455645</v>
       </c>
       <c r="O13">
-        <v>0.2782103643986128</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P13">
-        <v>0.2782103643986128</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q13">
-        <v>0.3055017621593099</v>
+        <v>5.661446935497501</v>
       </c>
       <c r="R13">
-        <v>0.3055017621593099</v>
+        <v>33.968681612985</v>
       </c>
       <c r="S13">
-        <v>0.01551492304694192</v>
+        <v>0.1764621034554335</v>
       </c>
       <c r="T13">
-        <v>0.01551492304694192</v>
+        <v>0.1532330539750743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1278,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.412112151961089</v>
+        <v>0.010485</v>
       </c>
       <c r="H14">
-        <v>0.412112151961089</v>
+        <v>0.031455</v>
       </c>
       <c r="I14">
-        <v>0.325508012971553</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J14">
-        <v>0.325508012971553</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N14">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O14">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P14">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q14">
-        <v>0.1452844161343485</v>
+        <v>0.0036971210925</v>
       </c>
       <c r="R14">
-        <v>0.1452844161343485</v>
+        <v>0.022182726555</v>
       </c>
       <c r="S14">
-        <v>0.007378276708822621</v>
+        <v>0.000115235870289875</v>
       </c>
       <c r="T14">
-        <v>0.007378276708822621</v>
+        <v>0.0001000664957870271</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1340,173 +1346,1041 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.412112151961089</v>
+        <v>0.010485</v>
       </c>
       <c r="H15">
-        <v>0.412112151961089</v>
+        <v>0.031455</v>
       </c>
       <c r="I15">
-        <v>0.325508012971553</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J15">
-        <v>0.325508012971553</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N15">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O15">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P15">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q15">
-        <v>4.349251376335522</v>
+        <v>0.12018304032</v>
       </c>
       <c r="R15">
-        <v>4.349251376335522</v>
+        <v>1.08164736288</v>
       </c>
       <c r="S15">
-        <v>0.2208769597226217</v>
+        <v>0.003745995032040822</v>
       </c>
       <c r="T15">
-        <v>0.2208769597226217</v>
+        <v>0.004879321800785752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.412112151961089</v>
+        <v>0.010485</v>
       </c>
       <c r="H16">
-        <v>0.412112151961089</v>
+        <v>0.031455</v>
       </c>
       <c r="I16">
-        <v>0.325508012971553</v>
+        <v>0.006227960582979085</v>
       </c>
       <c r="J16">
-        <v>0.325508012971553</v>
+        <v>0.007107520481996314</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N16">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O16">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P16">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q16">
-        <v>0.1317921967169432</v>
+        <v>0.000540211665</v>
       </c>
       <c r="R16">
-        <v>0.1317921967169432</v>
+        <v>0.004861904985</v>
       </c>
       <c r="S16">
-        <v>0.006693073636624502</v>
+        <v>1.683790165361413E-05</v>
       </c>
       <c r="T16">
-        <v>0.006693073636624502</v>
+        <v>2.193210079437995E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.010485</v>
+      </c>
+      <c r="H17">
+        <v>0.031455</v>
+      </c>
+      <c r="I17">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J17">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.143093</v>
+      </c>
+      <c r="O17">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P17">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q17">
+        <v>0.000500110035</v>
+      </c>
+      <c r="R17">
+        <v>0.004500990315</v>
+      </c>
+      <c r="S17">
+        <v>1.558797066204692E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.030401119883423E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.010485</v>
+      </c>
+      <c r="H18">
+        <v>0.031455</v>
+      </c>
+      <c r="I18">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J18">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.414919</v>
+      </c>
+      <c r="N18">
+        <v>1.244757</v>
+      </c>
+      <c r="O18">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P18">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q18">
+        <v>0.004350425715</v>
+      </c>
+      <c r="R18">
+        <v>0.039153831435</v>
+      </c>
+      <c r="S18">
+        <v>0.000135598775603122</v>
+      </c>
+      <c r="T18">
+        <v>0.0001766233153810969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.010485</v>
+      </c>
+      <c r="H19">
+        <v>0.031455</v>
+      </c>
+      <c r="I19">
+        <v>0.006227960582979085</v>
+      </c>
+      <c r="J19">
+        <v>0.007107520481996314</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.7278225</v>
+      </c>
+      <c r="N19">
+        <v>13.455645</v>
+      </c>
+      <c r="O19">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P19">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q19">
+        <v>0.07054121891249999</v>
+      </c>
+      <c r="R19">
+        <v>0.423247313475</v>
+      </c>
+      <c r="S19">
+        <v>0.002198705032729606</v>
+      </c>
+      <c r="T19">
+        <v>0.001909272758049225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="H17">
-        <v>0.412112151961089</v>
-      </c>
-      <c r="I17">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="J17">
-        <v>0.325508012971553</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.3269677876795</v>
-      </c>
-      <c r="N17">
-        <v>4.3269677876795</v>
-      </c>
-      <c r="O17">
-        <v>0.2782103643986128</v>
-      </c>
-      <c r="P17">
-        <v>0.2782103643986128</v>
-      </c>
-      <c r="Q17">
-        <v>1.783196006446911</v>
-      </c>
-      <c r="R17">
-        <v>1.783196006446911</v>
-      </c>
-      <c r="S17">
-        <v>0.09055970290348414</v>
-      </c>
-      <c r="T17">
-        <v>0.09055970290348414</v>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.206538</v>
+      </c>
+      <c r="H20">
+        <v>0.619614</v>
+      </c>
+      <c r="I20">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J20">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3526105</v>
+      </c>
+      <c r="N20">
+        <v>0.705221</v>
+      </c>
+      <c r="O20">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P20">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q20">
+        <v>0.072827467449</v>
+      </c>
+      <c r="R20">
+        <v>0.436964804694</v>
+      </c>
+      <c r="S20">
+        <v>0.002269965300708651</v>
+      </c>
+      <c r="T20">
+        <v>0.001971152494693468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.206538</v>
+      </c>
+      <c r="H21">
+        <v>0.619614</v>
+      </c>
+      <c r="I21">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J21">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N21">
+        <v>34.387136</v>
+      </c>
+      <c r="O21">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P21">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q21">
+        <v>2.367416765056</v>
+      </c>
+      <c r="R21">
+        <v>21.306750885504</v>
+      </c>
+      <c r="S21">
+        <v>0.07379020714617524</v>
+      </c>
+      <c r="T21">
+        <v>0.09611496100054245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.206538</v>
+      </c>
+      <c r="H22">
+        <v>0.619614</v>
+      </c>
+      <c r="I22">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J22">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.154567</v>
+      </c>
+      <c r="O22">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P22">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q22">
+        <v>0.010641319682</v>
+      </c>
+      <c r="R22">
+        <v>0.09577187713800001</v>
+      </c>
+      <c r="S22">
+        <v>0.0003316801651630095</v>
+      </c>
+      <c r="T22">
+        <v>0.0004320278716137002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.206538</v>
+      </c>
+      <c r="H23">
+        <v>0.619614</v>
+      </c>
+      <c r="I23">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J23">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.143093</v>
+      </c>
+      <c r="O23">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P23">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q23">
+        <v>0.009851380678</v>
+      </c>
+      <c r="R23">
+        <v>0.08866242610199999</v>
+      </c>
+      <c r="S23">
+        <v>0.0003070584916163897</v>
+      </c>
+      <c r="T23">
+        <v>0.0003999570686680805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.206538</v>
+      </c>
+      <c r="H24">
+        <v>0.619614</v>
+      </c>
+      <c r="I24">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J24">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.414919</v>
+      </c>
+      <c r="N24">
+        <v>1.244757</v>
+      </c>
+      <c r="O24">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P24">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q24">
+        <v>0.08569654042200001</v>
+      </c>
+      <c r="R24">
+        <v>0.7712688637980001</v>
+      </c>
+      <c r="S24">
+        <v>0.002671082490750369</v>
+      </c>
+      <c r="T24">
+        <v>0.003479201365014878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.206538</v>
+      </c>
+      <c r="H25">
+        <v>0.619614</v>
+      </c>
+      <c r="I25">
+        <v>0.1226810226883485</v>
+      </c>
+      <c r="J25">
+        <v>0.1400069685560854</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.7278225</v>
+      </c>
+      <c r="N25">
+        <v>13.455645</v>
+      </c>
+      <c r="O25">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P25">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q25">
+        <v>1.389551003505</v>
+      </c>
+      <c r="R25">
+        <v>8.337306021030001</v>
+      </c>
+      <c r="S25">
+        <v>0.04331102909393489</v>
+      </c>
+      <c r="T25">
+        <v>0.03760966875555278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4990375</v>
+      </c>
+      <c r="H26">
+        <v>0.998075</v>
+      </c>
+      <c r="I26">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J26">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3526105</v>
+      </c>
+      <c r="N26">
+        <v>0.705221</v>
+      </c>
+      <c r="O26">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P26">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q26">
+        <v>0.17596586239375</v>
+      </c>
+      <c r="R26">
+        <v>0.703863449575</v>
+      </c>
+      <c r="S26">
+        <v>0.00548469438433796</v>
+      </c>
+      <c r="T26">
+        <v>0.003175134884204009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4990375</v>
+      </c>
+      <c r="H27">
+        <v>0.998075</v>
+      </c>
+      <c r="I27">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J27">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N27">
+        <v>34.387136</v>
+      </c>
+      <c r="O27">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P27">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q27">
+        <v>5.720156793866667</v>
+      </c>
+      <c r="R27">
+        <v>34.3209407632</v>
+      </c>
+      <c r="S27">
+        <v>0.1782920358418762</v>
+      </c>
+      <c r="T27">
+        <v>0.1548220984364724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4990375</v>
+      </c>
+      <c r="H28">
+        <v>0.998075</v>
+      </c>
+      <c r="I28">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J28">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.154567</v>
+      </c>
+      <c r="O28">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P28">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q28">
+        <v>0.02571157642083334</v>
+      </c>
+      <c r="R28">
+        <v>0.154269458525</v>
+      </c>
+      <c r="S28">
+        <v>0.0008014062323762957</v>
+      </c>
+      <c r="T28">
+        <v>0.0006959110316436424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4990375</v>
+      </c>
+      <c r="H29">
+        <v>0.998075</v>
+      </c>
+      <c r="I29">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J29">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.143093</v>
+      </c>
+      <c r="O29">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P29">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q29">
+        <v>0.02380292432916667</v>
+      </c>
+      <c r="R29">
+        <v>0.142817545975</v>
+      </c>
+      <c r="S29">
+        <v>0.0007419152989281107</v>
+      </c>
+      <c r="T29">
+        <v>0.0006442513424662684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4990375</v>
+      </c>
+      <c r="H30">
+        <v>0.998075</v>
+      </c>
+      <c r="I30">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J30">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.414919</v>
+      </c>
+      <c r="N30">
+        <v>1.244757</v>
+      </c>
+      <c r="O30">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P30">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q30">
+        <v>0.2070601404625</v>
+      </c>
+      <c r="R30">
+        <v>1.242360842775</v>
+      </c>
+      <c r="S30">
+        <v>0.006453874485459515</v>
+      </c>
+      <c r="T30">
+        <v>0.005604301875663274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4990375</v>
+      </c>
+      <c r="H31">
+        <v>0.998075</v>
+      </c>
+      <c r="I31">
+        <v>0.2964221153484431</v>
+      </c>
+      <c r="J31">
+        <v>0.225523398666936</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.7278225</v>
+      </c>
+      <c r="N31">
+        <v>13.455645</v>
+      </c>
+      <c r="O31">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P31">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q31">
+        <v>3.35743572084375</v>
+      </c>
+      <c r="R31">
+        <v>13.429742883375</v>
+      </c>
+      <c r="S31">
+        <v>0.104648189105465</v>
+      </c>
+      <c r="T31">
+        <v>0.06058170109648643</v>
       </c>
     </row>
   </sheetData>
